--- a/SuRGE_Sharepoint/data/PR/ch4_1000_/dataSheets/surgeDepthProfile1000.xlsx
+++ b/SuRGE_Sharepoint/data/PR/ch4_1000_/dataSheets/surgeDepthProfile1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27218"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/PR/ch4_1000_/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{04353B98-336D-449B-B481-C158AB3532AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4614E287-38C3-460F-9690-CE62D5F87DAF}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{04353B98-336D-449B-B481-C158AB3532AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED99BB2-28EC-4376-AFA6-5B7343CF4154}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,12 +536,12 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="Q2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -567,7 +567,7 @@
     <col min="22" max="22" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33" customHeight="1">
+    <row r="1" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -652,7 +652,7 @@
         <v>5.8</v>
       </c>
       <c r="F2" s="1">
-        <v>0.27100000000000002</v>
+        <v>271</v>
       </c>
       <c r="G2" s="1">
         <v>20.51</v>
@@ -685,7 +685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -702,7 +702,7 @@
         <v>4.13</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28000000000000003</v>
+        <v>280</v>
       </c>
       <c r="G3" s="1">
         <v>20.51</v>
@@ -731,7 +731,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2.41</v>
       </c>
       <c r="F4" s="1">
-        <v>0.27900000000000003</v>
+        <v>279</v>
       </c>
       <c r="G4" s="1">
         <v>20.399999999999999</v>
@@ -777,7 +777,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -794,7 +794,7 @@
         <v>1.4</v>
       </c>
       <c r="F5" s="1">
-        <v>0.27900000000000003</v>
+        <v>279</v>
       </c>
       <c r="G5" s="1">
         <v>20.28</v>
@@ -823,7 +823,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0.65</v>
       </c>
       <c r="F6" s="1">
-        <v>0.27700000000000002</v>
+        <v>277</v>
       </c>
       <c r="G6" s="1">
         <v>20.27</v>
@@ -869,7 +869,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.39</v>
       </c>
       <c r="F7" s="1">
-        <v>0.309</v>
+        <v>309</v>
       </c>
       <c r="G7" s="1">
         <v>20.190000000000001</v>
@@ -915,7 +915,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1000</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0.3</v>
       </c>
       <c r="F8" s="1">
-        <v>0.309</v>
+        <v>309</v>
       </c>
       <c r="G8" s="1">
         <v>20.3</v>
@@ -961,7 +961,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1000</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F9" s="1">
-        <v>0.30599999999999999</v>
+        <v>306</v>
       </c>
       <c r="G9" s="1">
         <v>20.34</v>
@@ -1007,7 +1007,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1000</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.26</v>
       </c>
       <c r="F10" s="1">
-        <v>0.35599999999999998</v>
+        <v>356</v>
       </c>
       <c r="G10" s="1">
         <v>20.36</v>
@@ -1053,7 +1053,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1000</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0.26</v>
       </c>
       <c r="F11" s="1">
-        <v>0.4</v>
+        <v>400</v>
       </c>
       <c r="G11" s="1">
         <v>20.440000000000001</v>
@@ -1099,7 +1099,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1000</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.24</v>
       </c>
       <c r="F12" s="1">
-        <v>0.42</v>
+        <v>420</v>
       </c>
       <c r="G12" s="1">
         <v>20.45</v>
@@ -1145,7 +1145,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0.24</v>
       </c>
       <c r="F13" s="1">
-        <v>0.435</v>
+        <v>435</v>
       </c>
       <c r="G13" s="1">
         <v>20.5</v>
@@ -1191,7 +1191,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1000</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.23</v>
       </c>
       <c r="F14" s="1">
-        <v>0.44700000000000001</v>
+        <v>447</v>
       </c>
       <c r="G14" s="1">
         <v>20.350000000000001</v>
@@ -1249,13 +1249,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1437,22 +1437,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-02T12:20:25+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d0c06073aad642fb447e451b4bd3149">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f347bf1c409ca453852eb5a13773c360" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
@@ -1497,6 +1527,9 @@
                 <xsd:element ref="ns6:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns6:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns6:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns6:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1554,6 +1587,16 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="45" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="46" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1813,6 +1856,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="43" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="44" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1915,60 +1963,69 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-02T12:20:25+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E36EE71-F4F3-4768-972C-AF62B7D3FE04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B0138C-999E-488B-B38A-F0E476E45B67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CD2915-996B-4148-A62E-01147DA7538A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41CAC154-7D8A-48C6-A53A-41499429CF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D533FEC7-79BF-4625-B725-EF212A97C240}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CD2915-996B-4148-A62E-01147DA7538A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B0138C-999E-488B-B38A-F0E476E45B67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E36EE71-F4F3-4768-972C-AF62B7D3FE04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>